--- a/biology/Botanique/Xylopia_cupularis/Xylopia_cupularis.xlsx
+++ b/biology/Botanique/Xylopia_cupularis/Xylopia_cupularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylopia cupularis Mildbr. est une espèce de plantes de la famille des Annonaceae et du genre Xylopia, présente en Afrique tropicale.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre qui peut atteindre 35 m de hauteur et 60 cm de diamètre pour le fût. Son bois est d'un brun jaunâtre. Il est lourd, avec une densité de 750 à 935 kg/m3, à 12% d'humidité[2].
-L'espèce est présente depuis le Cameroun jusqu'à la République démocratique du Congo, et vers le sud jusqu'en Angola (Cabinda[2]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui peut atteindre 35 m de hauteur et 60 cm de diamètre pour le fût. Son bois est d'un brun jaunâtre. Il est lourd, avec une densité de 750 à 935 kg/m3, à 12% d'humidité.
+L'espèce est présente depuis le Cameroun jusqu'à la République démocratique du Congo, et vers le sud jusqu'en Angola (Cabinda).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bois est utilisé principalement en construction. Les feuilles macérées se prennent en cas de diarrhée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois est utilisé principalement en construction. Les feuilles macérées se prennent en cas de diarrhée.
 </t>
         </is>
       </c>
